--- a/xlsx/他加禄语_intext.xlsx
+++ b/xlsx/他加禄语_intext.xlsx
@@ -15,27 +15,27 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="330">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="324">
   <si>
     <t>他加禄语</t>
   </si>
   <si>
-    <t>https://zh.wikipedia.org/wiki/%E4%BB%96%E5%8A%A0%E7%A6%84%E8%AF%AD</t>
+    <t>https://zh.wikipedia.org/wiki/%E4%BB%96%E5%8A%A0%E7%A5%BF%E8%AA%9E</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%8F%B2%E5%BE%8B%E8%B3%93</t>
   </si>
   <si>
-    <t>菲律賓</t>
-  </si>
-  <si>
-    <t>政策_政策_美國_他加禄语</t>
+    <t>菲律宾</t>
+  </si>
+  <si>
+    <t>政策_政策_美国_他加禄语</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%91%82%E5%AE%8B%E5%B3%B6</t>
   </si>
   <si>
-    <t>呂宋島</t>
+    <t>吕宋岛</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%AF%AD%E8%A8%80%E7%B3%BB%E5%B1%9E%E5%88%86%E7%B1%BB</t>
@@ -47,19 +47,19 @@
     <t>https://zh.wikipedia.org/wiki/%E5%8D%97%E5%B3%B6%E8%AA%9E%E7%B3%BB</t>
   </si>
   <si>
-    <t>南島語系</t>
+    <t>南岛语系</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%A6%AC%E4%BE%86-%E7%8E%BB%E9%87%8C%E5%B0%BC%E8%A5%BF%E4%BA%9E%E8%AA%9E%E6%97%8F</t>
   </si>
   <si>
-    <t>馬來-玻里尼西亞語族</t>
+    <t>马来-玻里尼西亚语族</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%AE%98%E6%96%B9%E8%AA%9E%E8%A8%80%E5%88%97%E8%A1%A8</t>
   </si>
   <si>
-    <t>官方語言列表</t>
+    <t>官方语言列表</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/ISO_639-1</t>
@@ -89,25 +89,25 @@
     <t>https://zh.wikipedia.org/wiki/%E8%AA%9E%E7%B3%BB</t>
   </si>
   <si>
-    <t>語系</t>
+    <t>语系</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%8F%B2%E5%BE%8B%E8%B3%93%E8%AA%9E</t>
   </si>
   <si>
-    <t>菲律賓語</t>
+    <t>菲律宾语</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%8B%B1%E8%AA%9E</t>
   </si>
   <si>
-    <t>英語</t>
+    <t>英语</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/2000%E5%B9%B4%E8%8F%B2%E5%BE%8B%E8%B3%93%E4%BA%BA%E5%8F%A3%E6%99%AE%E6%9F%A5</t>
   </si>
   <si>
-    <t>2000年菲律賓人口普查</t>
+    <t>2000年菲律宾人口普查</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%8F%B2%E5%BE%8B%E5%AE%BE%E4%BA%BA</t>
@@ -119,13 +119,13 @@
     <t>https://zh.wikipedia.org/wiki/%E6%AF%8D%E8%AA%9E</t>
   </si>
   <si>
-    <t>母語</t>
+    <t>母语</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%AE%98%E6%96%B9%E8%AA%9E%E8%A8%80</t>
   </si>
   <si>
-    <t>官方語言</t>
+    <t>官方语言</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%B2%B3%E6%B5%81</t>
@@ -143,19 +143,19 @@
     <t>https://zh.wikipedia.org/wiki/%E6%A2%B5%E8%AA%9E</t>
   </si>
   <si>
-    <t>梵語</t>
+    <t>梵语</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%88%AA%E5%93%87%E8%AA%9E</t>
   </si>
   <si>
-    <t>爪哇語</t>
+    <t>爪哇语</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%A6%AC%E4%BE%86%E8%AA%9E</t>
   </si>
   <si>
-    <t>馬來語</t>
+    <t>马来语</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%B0%91%E7%AD%94%E9%82%A3%E5%B3%A8%E5%B2%9B</t>
@@ -167,19 +167,19 @@
     <t>https://zh.wikipedia.org/wiki/%E8%AA%9E%E8%A8%80%E6%8E%A5%E8%A7%B8</t>
   </si>
   <si>
-    <t>語言接觸</t>
+    <t>语言接触</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%AA%9E%E8%A8%80</t>
   </si>
   <si>
-    <t>語言</t>
+    <t>语言</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%A6%AC%E5%B0%BC%E6%8B%89</t>
   </si>
   <si>
-    <t>馬尼拉</t>
+    <t>马尼拉</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%AE%96%E6%B0%91</t>
@@ -191,19 +191,19 @@
     <t>https://zh.wikipedia.org/wiki/%E8%A5%BF%E7%8F%AD%E7%89%99%E8%AA%9E</t>
   </si>
   <si>
-    <t>西班牙語</t>
+    <t>西班牙语</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%AD%97%E5%BD%99</t>
   </si>
   <si>
-    <t>字彙</t>
+    <t>字汇</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%96%A9%E5%8D%97%E8%AA%9E</t>
   </si>
   <si>
-    <t>閩南語</t>
+    <t>闽南语</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%A2%B5%E6%96%87</t>
@@ -215,31 +215,31 @@
     <t>https://zh.wikipedia.org/wiki/%E9%98%BF%E6%8B%89%E4%BC%AF%E8%AA%9E</t>
   </si>
   <si>
-    <t>阿拉伯語</t>
+    <t>阿拉伯语</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%82%A6%E6%9D%BF%E7%89%99%E8%AA%9E</t>
   </si>
   <si>
-    <t>邦板牙語</t>
+    <t>邦板牙语</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%A4%96%E4%BE%86%E8%AA%9E</t>
   </si>
   <si>
-    <t>外來語</t>
+    <t>外来语</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%AA%9E%E8%A8%80%E5%AD%B8</t>
   </si>
   <si>
-    <t>語言學</t>
+    <t>语言学</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8D%B0%E5%B0%BC%E8%AA%9E</t>
   </si>
   <si>
-    <t>印尼語</t>
+    <t>印尼语</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%A4%8F%E5%A8%81%E5%A4%B7%E8%AF%AD</t>
@@ -251,61 +251,61 @@
     <t>https://zh.wikipedia.org/wiki/%E5%B8%9B%E7%90%89%E8%AA%9E</t>
   </si>
   <si>
-    <t>帛琉語</t>
+    <t>帛琉语</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8F%B0%E7%81%A3%E5%8D%97%E5%B3%B6%E8%AA%9E%E8%A8%80</t>
   </si>
   <si>
-    <t>台灣南島語言</t>
+    <t>台湾南岛语言</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%A6%AC%E4%BE%86%E8%A5%BF%E4%BA%9E</t>
   </si>
   <si>
-    <t>馬來西亞</t>
+    <t>马来西亚</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%87%BA%E7%81%A3</t>
   </si>
   <si>
-    <t>臺灣</t>
+    <t>台湾</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%81%94%E6%82%9F%E8%AA%9E</t>
   </si>
   <si>
-    <t>達悟語</t>
+    <t>达悟语</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%B8%8C%E5%88%A9%E8%93%8B%E8%BE%B2%E8%AA%9E</t>
   </si>
   <si>
-    <t>希利蓋農語</t>
+    <t>希利盖农语</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%93%A6%E7%91%9E%E7%93%A6%E7%91%9E%E8%AA%9E</t>
   </si>
   <si>
-    <t>瓦瑞瓦瑞語</t>
+    <t>瓦瑞瓦瑞语</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%AE%BF%E9%9C%A7%E8%AA%9E</t>
   </si>
   <si>
-    <t>宿霧語</t>
+    <t>宿雾语</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%A6%AC%E6%9E%97%E6%9D%9C%E5%85%8B%E5%B3%B6</t>
   </si>
   <si>
-    <t>馬林杜克島</t>
+    <t>马林杜克岛</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%B0%91%E9%83%BD%E6%B4%9B%E5%B3%B6</t>
   </si>
   <si>
-    <t>民都洛島</t>
+    <t>民都洛岛</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%8B%B1%E6%96%87</t>
@@ -317,49 +317,49 @@
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E8%A5%BF%E6%88%B0%E7%88%AD</t>
   </si>
   <si>
-    <t>美西戰爭</t>
+    <t>美西战争</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%9B%BC%E5%8A%AA%E5%9F%83%E7%88%BE%C2%B7%E5%A5%8E%E6%9D%BE</t>
   </si>
   <si>
-    <t>曼努埃爾·奎松</t>
+    <t>曼努埃尔·奎松</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%AE%BF%E9%9C%A7%E5%B3%B6</t>
   </si>
   <si>
-    <t>宿霧島</t>
+    <t>宿雾岛</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%96%84%E8%8D%B7%E5%B3%B6</t>
   </si>
   <si>
-    <t>薄荷島</t>
+    <t>薄荷岛</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%90%8A%E7%89%B9%E5%B3%B6</t>
   </si>
   <si>
-    <t>萊特島</t>
+    <t>莱特岛</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%9C%8B%E8%AA%9E</t>
   </si>
   <si>
-    <t>國語</t>
+    <t>国语</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%A6%AC%E5%8F%AF%E6%96%AF</t>
   </si>
   <si>
-    <t>馬可斯</t>
+    <t>马可斯</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%98%BF%E5%9F%BA%E8%AB%BE%E5%A4%AB%E4%BA%BA</t>
   </si>
   <si>
-    <t>阿基諾夫人</t>
+    <t>阿基诺夫人</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%94%87%E9%9F%B3</t>
@@ -389,7 +389,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%A1%AC%E9%A1%8E%E9%9F%B3</t>
   </si>
   <si>
-    <t>硬顎音</t>
+    <t>硬颚音</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%BD%AF%E8%85%AD%E9%9F%B3</t>
@@ -443,43 +443,43 @@
     <t>https://zh.wikipedia.org/wiki/%E6%B8%85%E9%9B%99%E5%94%87%E5%A1%9E%E9%9F%B3</t>
   </si>
   <si>
-    <t>清雙唇塞音</t>
+    <t>清双唇塞音</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%BF%81%E9%9B%99%E5%94%87%E5%A1%9E%E9%9F%B3</t>
   </si>
   <si>
-    <t>濁雙唇塞音</t>
+    <t>浊双唇塞音</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%B8%85%E9%BD%92%E9%BD%A6%E5%A1%9E%E9%9F%B3</t>
   </si>
   <si>
-    <t>清齒齦塞音</t>
+    <t>清齿龈塞音</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%BF%81%E9%BD%92%E9%BD%A6%E5%A1%9E%E9%9F%B3</t>
   </si>
   <si>
-    <t>濁齒齦塞音</t>
+    <t>浊齿龈塞音</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%B8%85%E8%BB%9F%E9%A1%8E%E5%A1%9E%E9%9F%B3</t>
   </si>
   <si>
-    <t>清軟顎塞音</t>
+    <t>清软颚塞音</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%BF%81%E8%BB%9F%E9%A1%8E%E5%A1%9E%E9%9F%B3</t>
   </si>
   <si>
-    <t>濁軟顎塞音</t>
+    <t>浊软颚塞音</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%81%B2%E9%96%80%E5%A1%9E%E9%9F%B3</t>
   </si>
   <si>
-    <t>聲門塞音</t>
+    <t>声门塞音</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%93%A6%E9%9F%B3</t>
@@ -545,19 +545,19 @@
     <t>https://zh.wikipedia.org/wiki/%E6%BF%81%E5%9C%93%E5%94%87%E8%BB%9F%E9%A1%8E%E8%BF%91%E9%9F%B3</t>
   </si>
   <si>
-    <t>濁圓唇軟顎近音</t>
+    <t>浊圆唇软颚近音</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%A5%88%E7%A6%B1</t>
   </si>
   <si>
-    <t>祈禱</t>
+    <t>祈祷</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%A6%AC</t>
   </si>
   <si>
-    <t>馬</t>
+    <t>马</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%A4%85%E5%AD%90</t>
@@ -569,7 +569,7 @@
     <t>https://zh.wikipedia.org/wiki/%E8%BB%8A</t>
   </si>
   <si>
-    <t>車</t>
+    <t>车</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%82%A5%E7%9A%82</t>
@@ -587,7 +587,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%BD%A4%E9%A4%85</t>
   </si>
   <si>
-    <t>潤餅</t>
+    <t>润饼</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%82%89%E5%8C%85</t>
@@ -599,7 +599,7 @@
     <t>https://zh.wikipedia.org/wiki/%E9%9B%B2%E5%90%9E</t>
   </si>
   <si>
-    <t>雲吞</t>
+    <t>云吞</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%89%81%E9%A3%9F</t>
@@ -611,7 +611,7 @@
     <t>https://zh.wikipedia.org/wiki/%E9%91%B0%E5%8C%99</t>
   </si>
   <si>
-    <t>鑰匙</t>
+    <t>钥匙</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%9C%A8%E5%B1%A5</t>
@@ -623,7 +623,7 @@
     <t>https://zh.wikipedia.org/wiki/%E8%80%B3%E7%92%B0</t>
   </si>
   <si>
-    <t>耳環</t>
+    <t>耳环</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%B1%B3%E7%B2%89</t>
@@ -635,31 +635,31 @@
     <t>https://zh.wikipedia.org/wiki/%E4%BA%BA%E5%8F%83</t>
   </si>
   <si>
-    <t>人參</t>
+    <t>人参</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8C%97%E4%BA%AC%E8%A9%B1</t>
   </si>
   <si>
-    <t>北京話</t>
+    <t>北京话</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%BA%BB%E5%B0%87</t>
   </si>
   <si>
-    <t>麻將</t>
+    <t>麻将</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%A6%B4%E6%A7%A4</t>
   </si>
   <si>
-    <t>榴槤</t>
+    <t>榴梿</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%B4%85%E6%AF%9B%E4%B8%B9</t>
   </si>
   <si>
-    <t>紅毛丹</t>
+    <t>红毛丹</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%97%A4</t>
@@ -677,7 +677,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%96%B0%E8%81%9E</t>
   </si>
   <si>
-    <t>新聞</t>
+    <t>新闻</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%85%92</t>
@@ -689,7 +689,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%B3%A2%E6%96%AF%E8%AA%9E</t>
   </si>
   <si>
-    <t>波斯語</t>
+    <t>波斯语</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%8A%92%E6%9E%9C</t>
@@ -701,13 +701,13 @@
     <t>https://zh.wikipedia.org/wiki/%E5%A1%94%E7%B1%B3%E7%88%BE%E8%AA%9E</t>
   </si>
   <si>
-    <t>塔米爾語</t>
+    <t>塔米尔语</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%BC%8A%E6%96%AF%E8%98%AD%E6%95%99</t>
   </si>
   <si>
-    <t>伊斯蘭教</t>
+    <t>伊斯兰教</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%B4%A0%E6%AA%80</t>
@@ -725,25 +725,25 @@
     <t>https://zh.wikipedia.org/wiki/%E6%97%A5%E8%AA%9E</t>
   </si>
   <si>
-    <t>日語</t>
+    <t>日语</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%A5%87%E7%95%B0%E6%9E%9C</t>
   </si>
   <si>
-    <t>奇異果</t>
+    <t>奇异果</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%AF%9B%E5%88%A9%E8%AA%9E</t>
   </si>
   <si>
-    <t>毛利語</t>
+    <t>毛利语</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%83%8F%E5%85%8B%E9%BA%97%E9%BA%97</t>
   </si>
   <si>
-    <t>烏克麗麗</t>
+    <t>乌克丽丽</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%A6%81%E5%BF%8C</t>
@@ -773,7 +773,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%B6%AD%E5%9F%BA%E7%99%BE%E7%A7%91</t>
   </si>
   <si>
-    <t>維基百科</t>
+    <t>维基百科</t>
   </si>
   <si>
     <t>https://tl.wikipedia.org/wiki/</t>
@@ -785,21 +785,18 @@
     <t>https://zh.wikipedia.org/wiki/%E8%8F%B2%E5%BE%8B%E8%B3%93%E8%AA%9E%E8%A8%80</t>
   </si>
   <si>
-    <t>菲律賓語言</t>
+    <t>菲律宾语言</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%9C%8B%E5%AE%B6%E8%AA%9E%E8%A8%80</t>
   </si>
   <si>
-    <t>國家語言</t>
+    <t>国家语言</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%AE%98%E6%96%B9%E8%AF%AD%E8%A8%80</t>
   </si>
   <si>
-    <t>官方语言</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E5%9C%B0%E6%96%B9%E8%AF%AD%E8%A8%80</t>
   </si>
   <si>
@@ -809,13 +806,13 @@
     <t>https://zh.wikipedia.org/wiki/%E6%9F%A5%E7%93%A6%E5%8D%A1%E8%AB%BE%E8%AA%9E</t>
   </si>
   <si>
-    <t>查瓦卡諾語</t>
+    <t>查瓦卡诺语</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%85%8B%E9%87%8C%E5%A5%A7%E7%88%BE%E8%AA%9E</t>
   </si>
   <si>
-    <t>克里奧爾語</t>
+    <t>克里奥尔语</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%BC%8A%E6%B4%9B%E5%8D%A1%E8%AF%BA%E8%AF%AD</t>
@@ -827,15 +824,12 @@
     <t>https://zh.wikipedia.org/wiki/%E5%B0%91%E6%95%B8%E6%B0%91%E6%97%8F%E8%AA%9E%E8%A8%80</t>
   </si>
   <si>
-    <t>少數民族語言</t>
+    <t>少数民族语言</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%98%BF%E6%8B%89%E4%BC%AF%E8%AF%AD</t>
   </si>
   <si>
-    <t>阿拉伯语</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E5%92%B1%E4%BA%BA%E8%AF%9D</t>
   </si>
   <si>
@@ -845,13 +839,13 @@
     <t>https://zh.wikipedia.org/wiki/%E5%B7%B4%E4%B8%B9%E8%AA%9E%E7%BE%A4</t>
   </si>
   <si>
-    <t>巴丹語群</t>
+    <t>巴丹语群</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%B1%B3%E6%B2%99%E9%84%A2%E8%AA%9E%E6%94%AF</t>
   </si>
   <si>
-    <t>米沙鄢語支</t>
+    <t>米沙鄢语支</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/Languages_of_Oceania</t>
@@ -875,25 +869,22 @@
     <t>https://zh.wikipedia.org/wiki/%E6%AF%9B%E5%88%A9%E8%AF%AD</t>
   </si>
   <si>
-    <t>毛利语</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E6%96%90%E6%BF%9F%E8%AA%9E</t>
   </si>
   <si>
-    <t>斐濟語</t>
+    <t>斐济语</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%96%90%E6%BF%9F%E5%8D%B0%E5%9C%B0%E8%AA%9E</t>
   </si>
   <si>
-    <t>斐濟印地語</t>
+    <t>斐济印地语</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%90%89%E9%87%8C%E5%B7%B4%E6%96%AF%E8%AA%9E</t>
   </si>
   <si>
-    <t>吉里巴斯語</t>
+    <t>吉里巴斯语</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%A9%AC%E7%BB%8D%E5%B0%94%E8%AF%AD</t>
@@ -917,13 +908,13 @@
     <t>https://zh.wikipedia.org/wiki/%E8%96%A9%E6%91%A9%E4%BA%9E%E8%AA%9E</t>
   </si>
   <si>
-    <t>薩摩亞語</t>
+    <t>萨摩亚语</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%B9%AF%E5%8A%A0%E8%AA%9E</t>
   </si>
   <si>
-    <t>湯加語</t>
+    <t>汤加语</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%9B%BE%E7%93%A6%E5%8D%A2%E8%AF%AD</t>
@@ -935,19 +926,19 @@
     <t>https://zh.wikipedia.org/wiki/%E5%A2%83%E5%A4%96%E9%A0%98%E5%9C%9F</t>
   </si>
   <si>
-    <t>境外領土</t>
+    <t>境外领土</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%B8%BB%E6%AC%8A</t>
   </si>
   <si>
-    <t>主權</t>
+    <t>主权</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%A4%A7%E6%BA%AA%E5%9C%B0%E8%AA%9E</t>
   </si>
   <si>
-    <t>大溪地語</t>
+    <t>大溪地语</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%9F%A5%E8%8E%AB%E7%BD%97%E8%AF%AD</t>
@@ -965,13 +956,13 @@
     <t>https://zh.wikipedia.org/wiki/%E8%AB%BE%E7%A6%8F%E5%85%8B%E8%AA%9E</t>
   </si>
   <si>
-    <t>諾福克語</t>
+    <t>诺福克语</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%9A%AE%E7%89%B9%E8%82%AF%E8%AA%9E</t>
   </si>
   <si>
-    <t>皮特肯語</t>
+    <t>皮特肯语</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%89%98%E5%85%8B%E5%8A%B3%E8%AF%AD</t>
@@ -983,7 +974,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%AC%8A%E5%A8%81%E6%8E%A7%E5%88%B6</t>
   </si>
   <si>
-    <t>權威控制</t>
+    <t>权威控制</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%95%B4%E5%90%88%E8%A7%84%E8%8C%83%E6%96%87%E6%A1%A3</t>
@@ -995,16 +986,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%9C%8B%E7%AB%8B%E5%9C%8B%E6%9C%83%E5%9C%96%E6%9B%B8%E9%A4%A8</t>
   </si>
   <si>
-    <t>國立國會圖書館</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E4%BB%96%E5%8A%A0%E7%A5%BF%E8%AA%9E</t>
-  </si>
-  <si>
-    <t>浏览条目正文[c]</t>
-  </si>
-  <si>
-    <t>阅读</t>
+    <t>国立国会图书馆</t>
   </si>
 </sst>
 </file>
@@ -1353,7 +1335,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I168"/>
+  <dimension ref="A1:I166"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3263,7 +3245,7 @@
         <v>132</v>
       </c>
       <c r="G66" t="n">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="H66" t="s">
         <v>4</v>
@@ -3292,7 +3274,7 @@
         <v>134</v>
       </c>
       <c r="G67" t="n">
-        <v>339</v>
+        <v>336</v>
       </c>
       <c r="H67" t="s">
         <v>4</v>
@@ -3466,7 +3448,7 @@
         <v>146</v>
       </c>
       <c r="G73" t="n">
-        <v>460</v>
+        <v>454</v>
       </c>
       <c r="H73" t="s">
         <v>4</v>
@@ -3495,7 +3477,7 @@
         <v>148</v>
       </c>
       <c r="G74" t="n">
-        <v>203</v>
+        <v>198</v>
       </c>
       <c r="H74" t="s">
         <v>4</v>
@@ -3524,7 +3506,7 @@
         <v>150</v>
       </c>
       <c r="G75" t="n">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="H75" t="s">
         <v>4</v>
@@ -3843,7 +3825,7 @@
         <v>172</v>
       </c>
       <c r="G86" t="n">
-        <v>306</v>
+        <v>303</v>
       </c>
       <c r="H86" t="s">
         <v>4</v>
@@ -3901,7 +3883,7 @@
         <v>176</v>
       </c>
       <c r="G88" t="n">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="H88" t="s">
         <v>4</v>
@@ -5145,7 +5127,7 @@
         <v>259</v>
       </c>
       <c r="F131" t="s">
-        <v>260</v>
+        <v>36</v>
       </c>
       <c r="G131" t="n">
         <v>2</v>
@@ -5171,10 +5153,10 @@
         <v>131</v>
       </c>
       <c r="E132" t="s">
+        <v>260</v>
+      </c>
+      <c r="F132" t="s">
         <v>261</v>
-      </c>
-      <c r="F132" t="s">
-        <v>262</v>
       </c>
       <c r="G132" t="n">
         <v>3</v>
@@ -5200,10 +5182,10 @@
         <v>132</v>
       </c>
       <c r="E133" t="s">
+        <v>262</v>
+      </c>
+      <c r="F133" t="s">
         <v>263</v>
-      </c>
-      <c r="F133" t="s">
-        <v>264</v>
       </c>
       <c r="G133" t="n">
         <v>1</v>
@@ -5229,10 +5211,10 @@
         <v>133</v>
       </c>
       <c r="E134" t="s">
+        <v>264</v>
+      </c>
+      <c r="F134" t="s">
         <v>265</v>
-      </c>
-      <c r="F134" t="s">
-        <v>266</v>
       </c>
       <c r="G134" t="n">
         <v>1</v>
@@ -5258,10 +5240,10 @@
         <v>134</v>
       </c>
       <c r="E135" t="s">
+        <v>266</v>
+      </c>
+      <c r="F135" t="s">
         <v>267</v>
-      </c>
-      <c r="F135" t="s">
-        <v>268</v>
       </c>
       <c r="G135" t="n">
         <v>1</v>
@@ -5287,10 +5269,10 @@
         <v>135</v>
       </c>
       <c r="E136" t="s">
+        <v>268</v>
+      </c>
+      <c r="F136" t="s">
         <v>269</v>
-      </c>
-      <c r="F136" t="s">
-        <v>270</v>
       </c>
       <c r="G136" t="n">
         <v>1</v>
@@ -5316,10 +5298,10 @@
         <v>136</v>
       </c>
       <c r="E137" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="F137" t="s">
-        <v>272</v>
+        <v>66</v>
       </c>
       <c r="G137" t="n">
         <v>1</v>
@@ -5345,10 +5327,10 @@
         <v>137</v>
       </c>
       <c r="E138" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="F138" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="G138" t="n">
         <v>1</v>
@@ -5403,10 +5385,10 @@
         <v>139</v>
       </c>
       <c r="E140" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="F140" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="G140" t="n">
         <v>1</v>
@@ -5432,10 +5414,10 @@
         <v>140</v>
       </c>
       <c r="E141" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="F141" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="G141" t="n">
         <v>1</v>
@@ -5461,10 +5443,10 @@
         <v>141</v>
       </c>
       <c r="E142" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
       <c r="F142" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c r="G142" t="n">
         <v>1</v>
@@ -5490,10 +5472,10 @@
         <v>142</v>
       </c>
       <c r="E143" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
       <c r="F143" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="G143" t="n">
         <v>1</v>
@@ -5519,10 +5501,10 @@
         <v>143</v>
       </c>
       <c r="E144" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
       <c r="F144" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="G144" t="n">
         <v>1</v>
@@ -5548,10 +5530,10 @@
         <v>144</v>
       </c>
       <c r="E145" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
       <c r="F145" t="s">
-        <v>286</v>
+        <v>240</v>
       </c>
       <c r="G145" t="n">
         <v>1</v>
@@ -5577,10 +5559,10 @@
         <v>145</v>
       </c>
       <c r="E146" t="s">
-        <v>287</v>
+        <v>284</v>
       </c>
       <c r="F146" t="s">
-        <v>288</v>
+        <v>285</v>
       </c>
       <c r="G146" t="n">
         <v>1</v>
@@ -5606,10 +5588,10 @@
         <v>146</v>
       </c>
       <c r="E147" t="s">
-        <v>289</v>
+        <v>286</v>
       </c>
       <c r="F147" t="s">
-        <v>290</v>
+        <v>287</v>
       </c>
       <c r="G147" t="n">
         <v>1</v>
@@ -5635,10 +5617,10 @@
         <v>147</v>
       </c>
       <c r="E148" t="s">
-        <v>291</v>
+        <v>288</v>
       </c>
       <c r="F148" t="s">
-        <v>292</v>
+        <v>289</v>
       </c>
       <c r="G148" t="n">
         <v>1</v>
@@ -5664,10 +5646,10 @@
         <v>148</v>
       </c>
       <c r="E149" t="s">
-        <v>293</v>
+        <v>290</v>
       </c>
       <c r="F149" t="s">
-        <v>294</v>
+        <v>291</v>
       </c>
       <c r="G149" t="n">
         <v>1</v>
@@ -5693,10 +5675,10 @@
         <v>149</v>
       </c>
       <c r="E150" t="s">
-        <v>295</v>
+        <v>292</v>
       </c>
       <c r="F150" t="s">
-        <v>296</v>
+        <v>293</v>
       </c>
       <c r="G150" t="n">
         <v>1</v>
@@ -5722,10 +5704,10 @@
         <v>150</v>
       </c>
       <c r="E151" t="s">
-        <v>297</v>
+        <v>294</v>
       </c>
       <c r="F151" t="s">
-        <v>298</v>
+        <v>295</v>
       </c>
       <c r="G151" t="n">
         <v>1</v>
@@ -5751,10 +5733,10 @@
         <v>151</v>
       </c>
       <c r="E152" t="s">
-        <v>299</v>
+        <v>296</v>
       </c>
       <c r="F152" t="s">
-        <v>300</v>
+        <v>297</v>
       </c>
       <c r="G152" t="n">
         <v>2</v>
@@ -5780,10 +5762,10 @@
         <v>152</v>
       </c>
       <c r="E153" t="s">
-        <v>301</v>
+        <v>298</v>
       </c>
       <c r="F153" t="s">
-        <v>302</v>
+        <v>299</v>
       </c>
       <c r="G153" t="n">
         <v>1</v>
@@ -5809,10 +5791,10 @@
         <v>153</v>
       </c>
       <c r="E154" t="s">
-        <v>303</v>
+        <v>300</v>
       </c>
       <c r="F154" t="s">
-        <v>304</v>
+        <v>301</v>
       </c>
       <c r="G154" t="n">
         <v>1</v>
@@ -5838,10 +5820,10 @@
         <v>154</v>
       </c>
       <c r="E155" t="s">
-        <v>305</v>
+        <v>302</v>
       </c>
       <c r="F155" t="s">
-        <v>306</v>
+        <v>303</v>
       </c>
       <c r="G155" t="n">
         <v>1</v>
@@ -5867,10 +5849,10 @@
         <v>155</v>
       </c>
       <c r="E156" t="s">
-        <v>307</v>
+        <v>304</v>
       </c>
       <c r="F156" t="s">
-        <v>308</v>
+        <v>305</v>
       </c>
       <c r="G156" t="n">
         <v>1</v>
@@ -5896,10 +5878,10 @@
         <v>156</v>
       </c>
       <c r="E157" t="s">
-        <v>309</v>
+        <v>306</v>
       </c>
       <c r="F157" t="s">
-        <v>310</v>
+        <v>307</v>
       </c>
       <c r="G157" t="n">
         <v>1</v>
@@ -5925,10 +5907,10 @@
         <v>157</v>
       </c>
       <c r="E158" t="s">
-        <v>311</v>
+        <v>308</v>
       </c>
       <c r="F158" t="s">
-        <v>312</v>
+        <v>309</v>
       </c>
       <c r="G158" t="n">
         <v>1</v>
@@ -5983,10 +5965,10 @@
         <v>159</v>
       </c>
       <c r="E160" t="s">
-        <v>313</v>
+        <v>310</v>
       </c>
       <c r="F160" t="s">
-        <v>314</v>
+        <v>311</v>
       </c>
       <c r="G160" t="n">
         <v>1</v>
@@ -6012,10 +5994,10 @@
         <v>160</v>
       </c>
       <c r="E161" t="s">
-        <v>315</v>
+        <v>312</v>
       </c>
       <c r="F161" t="s">
-        <v>316</v>
+        <v>313</v>
       </c>
       <c r="G161" t="n">
         <v>1</v>
@@ -6041,10 +6023,10 @@
         <v>161</v>
       </c>
       <c r="E162" t="s">
-        <v>317</v>
+        <v>314</v>
       </c>
       <c r="F162" t="s">
-        <v>318</v>
+        <v>315</v>
       </c>
       <c r="G162" t="n">
         <v>1</v>
@@ -6070,10 +6052,10 @@
         <v>162</v>
       </c>
       <c r="E163" t="s">
-        <v>319</v>
+        <v>316</v>
       </c>
       <c r="F163" t="s">
-        <v>320</v>
+        <v>317</v>
       </c>
       <c r="G163" t="n">
         <v>1</v>
@@ -6099,10 +6081,10 @@
         <v>163</v>
       </c>
       <c r="E164" t="s">
-        <v>321</v>
+        <v>318</v>
       </c>
       <c r="F164" t="s">
-        <v>322</v>
+        <v>319</v>
       </c>
       <c r="G164" t="n">
         <v>3</v>
@@ -6128,10 +6110,10 @@
         <v>164</v>
       </c>
       <c r="E165" t="s">
-        <v>323</v>
+        <v>320</v>
       </c>
       <c r="F165" t="s">
-        <v>324</v>
+        <v>321</v>
       </c>
       <c r="G165" t="n">
         <v>1</v>
@@ -6157,10 +6139,10 @@
         <v>165</v>
       </c>
       <c r="E166" t="s">
-        <v>325</v>
+        <v>322</v>
       </c>
       <c r="F166" t="s">
-        <v>326</v>
+        <v>323</v>
       </c>
       <c r="G166" t="n">
         <v>1</v>
@@ -6169,64 +6151,6 @@
         <v>4</v>
       </c>
       <c r="I166" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="167" spans="1:9">
-      <c r="A167" s="1" t="n">
-        <v>165</v>
-      </c>
-      <c r="B167" t="s">
-        <v>0</v>
-      </c>
-      <c r="C167" t="s">
-        <v>1</v>
-      </c>
-      <c r="D167" t="n">
-        <v>166</v>
-      </c>
-      <c r="E167" t="s">
-        <v>327</v>
-      </c>
-      <c r="F167" t="s">
-        <v>328</v>
-      </c>
-      <c r="G167" t="n">
-        <v>10</v>
-      </c>
-      <c r="H167" t="s">
-        <v>4</v>
-      </c>
-      <c r="I167" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="168" spans="1:9">
-      <c r="A168" s="1" t="n">
-        <v>166</v>
-      </c>
-      <c r="B168" t="s">
-        <v>0</v>
-      </c>
-      <c r="C168" t="s">
-        <v>1</v>
-      </c>
-      <c r="D168" t="n">
-        <v>167</v>
-      </c>
-      <c r="E168" t="s">
-        <v>327</v>
-      </c>
-      <c r="F168" t="s">
-        <v>329</v>
-      </c>
-      <c r="G168" t="n">
-        <v>1</v>
-      </c>
-      <c r="H168" t="s">
-        <v>4</v>
-      </c>
-      <c r="I168" t="n">
         <v>3</v>
       </c>
     </row>
